--- a/file_exp/personality_results.xlsx
+++ b/file_exp/personality_results.xlsx
@@ -489,7 +489,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9020593869731801</v>
+        <v>0.9001436781609196</v>
       </c>
     </row>
     <row r="3">
@@ -510,10 +510,10 @@
         <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="G3" t="n">
         <v>0.9621903520208605</v>
@@ -537,13 +537,13 @@
         <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.95</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9510526315789473</v>
+        <v>0.9526315789473684</v>
       </c>
     </row>
   </sheetData>
